--- a/SchedulingData/dynamic15/pso/scheduling2_17.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_17.xlsx
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>234.02</v>
+        <v>206.8</v>
       </c>
       <c r="D2" t="n">
-        <v>284.86</v>
+        <v>277.1</v>
       </c>
       <c r="E2" t="n">
-        <v>12.144</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>221.1</v>
+        <v>228.28</v>
       </c>
       <c r="D3" t="n">
-        <v>270.9</v>
+        <v>289.04</v>
       </c>
       <c r="E3" t="n">
-        <v>14.54</v>
+        <v>11.776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>208.76</v>
+        <v>219.46</v>
       </c>
       <c r="D4" t="n">
-        <v>276.98</v>
+        <v>272.16</v>
       </c>
       <c r="E4" t="n">
-        <v>12.452</v>
+        <v>12.444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>284.86</v>
+        <v>289.04</v>
       </c>
       <c r="D5" t="n">
-        <v>348.16</v>
+        <v>332.06</v>
       </c>
       <c r="E5" t="n">
-        <v>7.944</v>
+        <v>8.603999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>270.82</v>
+        <v>230.96</v>
       </c>
       <c r="D6" t="n">
-        <v>344.54</v>
+        <v>298.96</v>
       </c>
       <c r="E6" t="n">
-        <v>7.776</v>
+        <v>12.224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>348.16</v>
+        <v>332.06</v>
       </c>
       <c r="D7" t="n">
-        <v>417.2</v>
+        <v>375.48</v>
       </c>
       <c r="E7" t="n">
-        <v>3.68</v>
+        <v>5.392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>344.54</v>
+        <v>214.78</v>
       </c>
       <c r="D8" t="n">
-        <v>381.28</v>
+        <v>279.96</v>
       </c>
       <c r="E8" t="n">
-        <v>5.232</v>
+        <v>12.664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>381.28</v>
+        <v>298.96</v>
       </c>
       <c r="D9" t="n">
-        <v>437.8</v>
+        <v>338.48</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2</v>
+        <v>9.891999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -618,74 +618,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>437.8</v>
+        <v>231.6</v>
       </c>
       <c r="D10" t="n">
-        <v>527</v>
+        <v>287.34</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>12.896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>276.98</v>
+        <v>272.16</v>
       </c>
       <c r="D11" t="n">
-        <v>344.8</v>
+        <v>321.94</v>
       </c>
       <c r="E11" t="n">
-        <v>9.279999999999999</v>
+        <v>8.596</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>417.2</v>
+        <v>375.48</v>
       </c>
       <c r="D12" t="n">
-        <v>487.2</v>
+        <v>408.38</v>
       </c>
       <c r="E12" t="n">
-        <v>0.26</v>
+        <v>3.232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>487.2</v>
+        <v>408.38</v>
       </c>
       <c r="D13" t="n">
-        <v>553.6799999999999</v>
+        <v>441.38</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="14">
@@ -694,226 +694,226 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>344.8</v>
+        <v>441.38</v>
       </c>
       <c r="D14" t="n">
-        <v>422.72</v>
+        <v>540.54</v>
       </c>
       <c r="E14" t="n">
-        <v>6.068</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>422.72</v>
+        <v>277.1</v>
       </c>
       <c r="D15" t="n">
-        <v>485.42</v>
+        <v>332.08</v>
       </c>
       <c r="E15" t="n">
-        <v>2.428</v>
+        <v>9.071999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>247.8</v>
+        <v>279.96</v>
       </c>
       <c r="D16" t="n">
-        <v>324.9</v>
+        <v>343.46</v>
       </c>
       <c r="E16" t="n">
-        <v>8.640000000000001</v>
+        <v>7.444</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>270.9</v>
+        <v>540.54</v>
       </c>
       <c r="D17" t="n">
-        <v>317.48</v>
+        <v>596.96</v>
       </c>
       <c r="E17" t="n">
-        <v>11.012</v>
+        <v>26.528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>553.6799999999999</v>
+        <v>343.46</v>
       </c>
       <c r="D18" t="n">
-        <v>626.9</v>
+        <v>427.58</v>
       </c>
       <c r="E18" t="n">
-        <v>26.828</v>
+        <v>3.132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>485.42</v>
+        <v>332.08</v>
       </c>
       <c r="D19" t="n">
-        <v>581.86</v>
+        <v>378.96</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>6.004</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>581.86</v>
+        <v>338.48</v>
       </c>
       <c r="D20" t="n">
-        <v>631.72</v>
+        <v>399.52</v>
       </c>
       <c r="E20" t="n">
-        <v>27.184</v>
+        <v>6.928</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>626.9</v>
+        <v>399.52</v>
       </c>
       <c r="D21" t="n">
-        <v>663.0599999999999</v>
+        <v>453.48</v>
       </c>
       <c r="E21" t="n">
-        <v>23.852</v>
+        <v>2.672</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>324.9</v>
+        <v>287.34</v>
       </c>
       <c r="D22" t="n">
-        <v>352.9</v>
+        <v>336.54</v>
       </c>
       <c r="E22" t="n">
-        <v>6.48</v>
+        <v>9.616</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>352.9</v>
+        <v>321.94</v>
       </c>
       <c r="D23" t="n">
-        <v>418.62</v>
+        <v>387.04</v>
       </c>
       <c r="E23" t="n">
-        <v>3.008</v>
+        <v>4.696</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>317.48</v>
+        <v>336.54</v>
       </c>
       <c r="D24" t="n">
-        <v>408.24</v>
+        <v>404.54</v>
       </c>
       <c r="E24" t="n">
-        <v>7.536</v>
+        <v>6.896</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>408.24</v>
+        <v>404.54</v>
       </c>
       <c r="D25" t="n">
-        <v>466.68</v>
+        <v>471.42</v>
       </c>
       <c r="E25" t="n">
-        <v>5.292</v>
+        <v>2.808</v>
       </c>
     </row>
     <row r="26">
@@ -922,22 +922,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>208</v>
+        <v>427.58</v>
       </c>
       <c r="D26" t="n">
-        <v>263.8</v>
+        <v>469.68</v>
       </c>
       <c r="E26" t="n">
-        <v>13.64</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>418.62</v>
+        <v>469.68</v>
       </c>
       <c r="D27" t="n">
-        <v>494.3</v>
+        <v>541.58</v>
       </c>
       <c r="E27" t="n">
         <v>30</v>
@@ -960,188 +960,188 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>494.3</v>
+        <v>453.48</v>
       </c>
       <c r="D28" t="n">
-        <v>549.74</v>
+        <v>534.74</v>
       </c>
       <c r="E28" t="n">
-        <v>26.656</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>663.0599999999999</v>
+        <v>534.74</v>
       </c>
       <c r="D29" t="n">
-        <v>740.42</v>
+        <v>583.54</v>
       </c>
       <c r="E29" t="n">
-        <v>20.716</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>549.74</v>
+        <v>541.58</v>
       </c>
       <c r="D30" t="n">
-        <v>592.54</v>
+        <v>614.5599999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>23.016</v>
+        <v>26.832</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>592.54</v>
+        <v>378.96</v>
       </c>
       <c r="D31" t="n">
-        <v>657.04</v>
+        <v>462.76</v>
       </c>
       <c r="E31" t="n">
-        <v>20.656</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>263.8</v>
+        <v>462.76</v>
       </c>
       <c r="D32" t="n">
-        <v>322.3</v>
+        <v>547.91</v>
       </c>
       <c r="E32" t="n">
-        <v>9.9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>466.68</v>
+        <v>387.04</v>
       </c>
       <c r="D33" t="n">
-        <v>517.52</v>
+        <v>444.64</v>
       </c>
       <c r="E33" t="n">
-        <v>2.328</v>
+        <v>1.056</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>657.04</v>
+        <v>444.64</v>
       </c>
       <c r="D34" t="n">
-        <v>729.74</v>
+        <v>514.53</v>
       </c>
       <c r="E34" t="n">
-        <v>17.476</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>631.72</v>
+        <v>547.91</v>
       </c>
       <c r="D35" t="n">
-        <v>676.92</v>
+        <v>625.61</v>
       </c>
       <c r="E35" t="n">
-        <v>23.804</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>322.3</v>
+        <v>471.42</v>
       </c>
       <c r="D36" t="n">
-        <v>375.18</v>
+        <v>525.22</v>
       </c>
       <c r="E36" t="n">
-        <v>6.732</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>375.18</v>
+        <v>525.22</v>
       </c>
       <c r="D37" t="n">
-        <v>451.44</v>
+        <v>596.0599999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>3.196</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1150,93 +1150,93 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>676.92</v>
+        <v>596.96</v>
       </c>
       <c r="D38" t="n">
-        <v>724.52</v>
+        <v>647.86</v>
       </c>
       <c r="E38" t="n">
-        <v>21.644</v>
+        <v>22.568</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>517.52</v>
+        <v>614.5599999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>604.46</v>
+        <v>661.3</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>24.288</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>604.46</v>
+        <v>647.86</v>
       </c>
       <c r="D40" t="n">
-        <v>644.6799999999999</v>
+        <v>691.92</v>
       </c>
       <c r="E40" t="n">
-        <v>27.668</v>
+        <v>19.292</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>644.6799999999999</v>
+        <v>514.53</v>
       </c>
       <c r="D41" t="n">
-        <v>738.28</v>
+        <v>581.6900000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>24.388</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>451.44</v>
+        <v>581.6900000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>536.85</v>
+        <v>620.53</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>24.22</v>
       </c>
     </row>
     <row r="43">
@@ -1245,17 +1245,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>536.85</v>
+        <v>661.3</v>
       </c>
       <c r="D43" t="n">
-        <v>606.87</v>
+        <v>735.52</v>
       </c>
       <c r="E43" t="n">
-        <v>25.688</v>
+        <v>21.956</v>
       </c>
     </row>
     <row r="44">
@@ -1264,36 +1264,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>527</v>
+        <v>596.0599999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>582.38</v>
+        <v>671.5599999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>26.152</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>740.42</v>
+        <v>625.61</v>
       </c>
       <c r="D45" t="n">
-        <v>784.84</v>
+        <v>705.51</v>
       </c>
       <c r="E45" t="n">
-        <v>18.384</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="46">
@@ -1302,36 +1302,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>729.74</v>
+        <v>583.54</v>
       </c>
       <c r="D46" t="n">
-        <v>766.9400000000001</v>
+        <v>684.2</v>
       </c>
       <c r="E46" t="n">
-        <v>14.396</v>
+        <v>22.844</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>582.38</v>
+        <v>684.2</v>
       </c>
       <c r="D47" t="n">
-        <v>641.34</v>
+        <v>729</v>
       </c>
       <c r="E47" t="n">
-        <v>22.876</v>
+        <v>19.984</v>
       </c>
     </row>
   </sheetData>
